--- a/data/landings/cdfw/public/fish_bulletins/raw/fb58/raw/Table12.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb58/raw/Table12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb58/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC86D2E-B673-244B-B343-5BAA860B9FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E154D4-A448-8140-98DF-C999D943827F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Region of home port</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t>Santa Barbara</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -172,20 +175,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -507,7 +510,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -650,7 +653,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="B6" s="9">
         <v>66</v>
       </c>
